--- a/src/main/resources/highcharts.xlsx
+++ b/src/main/resources/highcharts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="38">
   <si>
     <t>Pie Chart</t>
   </si>
@@ -92,33 +92,6 @@
     <t>PartToAWhole</t>
   </si>
   <si>
-    <t>1D_o</t>
-  </si>
-  <si>
-    <t>2D_o</t>
-  </si>
-  <si>
-    <t>2D+_o</t>
-  </si>
-  <si>
-    <t>3D_o</t>
-  </si>
-  <si>
-    <t>3D+_o</t>
-  </si>
-  <si>
-    <t>2D_i</t>
-  </si>
-  <si>
-    <t>2D+_i</t>
-  </si>
-  <si>
-    <t>3D_i</t>
-  </si>
-  <si>
-    <t>3D+_i</t>
-  </si>
-  <si>
     <t>Stacked Area Chart</t>
   </si>
   <si>
@@ -135,6 +108,36 @@
   </si>
   <si>
     <t>Polar Chart</t>
+  </si>
+  <si>
+    <t>"2D_i"</t>
+  </si>
+  <si>
+    <t>"2D+_i"</t>
+  </si>
+  <si>
+    <t>"3D_i"</t>
+  </si>
+  <si>
+    <t>"3D+_i"</t>
+  </si>
+  <si>
+    <t>"1D_o"</t>
+  </si>
+  <si>
+    <t>"2D_o"</t>
+  </si>
+  <si>
+    <t>"2D+_o"</t>
+  </si>
+  <si>
+    <t>"3D_o"</t>
+  </si>
+  <si>
+    <t>"3D+_o"</t>
+  </si>
+  <si>
+    <t>"1D+_o"</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,10 +488,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -497,22 +500,22 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1265,9 +1268,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
@@ -1315,9 +1318,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -1365,9 +1368,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -1415,9 +1418,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -1465,9 +1468,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>6</v>
@@ -1515,9 +1518,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -1526,13 +1529,13 @@
         <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>7</v>
@@ -1541,13 +1544,13 @@
         <v>7</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>7</v>
@@ -1556,18 +1559,22 @@
         <v>7</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -1576,28 +1583,28 @@
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>7</v>
@@ -1606,18 +1613,18 @@
         <v>7</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -1629,28 +1636,28 @@
         <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>7</v>
@@ -1659,15 +1666,15 @@
         <v>7</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -1700,10 +1707,10 @@
         <v>7</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>7</v>
@@ -1715,8 +1722,58 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P26" s="2"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/highcharts.xlsx
+++ b/src/main/resources/highcharts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="45">
   <si>
     <t>Pie Chart</t>
   </si>
@@ -110,34 +110,55 @@
     <t>Polar Chart</t>
   </si>
   <si>
-    <t>"2D_i"</t>
-  </si>
-  <si>
-    <t>"2D+_i"</t>
-  </si>
-  <si>
-    <t>"3D_i"</t>
-  </si>
-  <si>
-    <t>"3D+_i"</t>
-  </si>
-  <si>
-    <t>"1D_o"</t>
-  </si>
-  <si>
-    <t>"2D_o"</t>
-  </si>
-  <si>
-    <t>"2D+_o"</t>
-  </si>
-  <si>
-    <t>"3D_o"</t>
-  </si>
-  <si>
-    <t>"3D+_o"</t>
-  </si>
-  <si>
-    <t>"1D+_o"</t>
+    <t>MultiSet Line Chart</t>
+  </si>
+  <si>
+    <t>MultiSet Bar Chart</t>
+  </si>
+  <si>
+    <t>MultiSet Bubble Chart</t>
+  </si>
+  <si>
+    <t>MultiSet ScatterPlot</t>
+  </si>
+  <si>
+    <t>Concern</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>2D_i</t>
+  </si>
+  <si>
+    <t>2D+_i</t>
+  </si>
+  <si>
+    <t>3D_i</t>
+  </si>
+  <si>
+    <t>3D+_i</t>
+  </si>
+  <si>
+    <t>1D_o</t>
+  </si>
+  <si>
+    <t>1D+_o</t>
+  </si>
+  <si>
+    <t>2D_o</t>
+  </si>
+  <si>
+    <t>2D+_o</t>
+  </si>
+  <si>
+    <t>3D_o</t>
+  </si>
+  <si>
+    <t>3D+_o</t>
   </si>
 </sst>
 </file>
@@ -173,12 +194,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,84 +482,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
-    <col min="2" max="11" width="10.33203125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="13.1640625" style="2" customWidth="1"/>
+    <col min="3" max="12" width="10.33203125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -544,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -553,33 +578,36 @@
         <v>6</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -588,13 +616,13 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>7</v>
@@ -603,13 +631,13 @@
         <v>7</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>7</v>
@@ -617,14 +645,17 @@
       <c r="P3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -632,13 +663,13 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>6</v>
@@ -650,13 +681,13 @@
         <v>6</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>6</v>
@@ -667,14 +698,17 @@
       <c r="P4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -717,14 +751,17 @@
       <c r="P5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
@@ -767,14 +804,17 @@
       <c r="P6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="Q6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -800,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>6</v>
@@ -809,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>7</v>
@@ -817,19 +857,22 @@
       <c r="P7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="Q7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -841,10 +884,10 @@
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>7</v>
@@ -867,14 +910,17 @@
       <c r="P8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="Q8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
@@ -897,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>6</v>
@@ -915,21 +961,24 @@
         <v>6</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
@@ -967,14 +1016,17 @@
       <c r="P10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="Q10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1000,10 +1052,10 @@
         <v>7</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>7</v>
@@ -1017,19 +1069,22 @@
       <c r="P11" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="Q11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>6</v>
@@ -1044,13 +1099,13 @@
         <v>6</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>6</v>
@@ -1065,16 +1120,19 @@
         <v>6</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1091,10 +1149,10 @@
         <v>6</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>6</v>
@@ -1109,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>7</v>
@@ -1117,19 +1175,22 @@
       <c r="P13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="Q13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -1144,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>6</v>
@@ -1167,19 +1228,22 @@
       <c r="P14" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="Q14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>6</v>
@@ -1194,16 +1258,16 @@
         <v>6</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>7</v>
@@ -1217,19 +1281,22 @@
       <c r="P15" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="Q15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>6</v>
@@ -1238,13 +1305,13 @@
         <v>6</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>6</v>
@@ -1259,21 +1326,24 @@
         <v>6</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
@@ -1282,48 +1352,51 @@
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
+      <c r="Q17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
@@ -1332,25 +1405,25 @@
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>7</v>
@@ -1362,18 +1435,21 @@
         <v>7</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
+      <c r="Q18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>7</v>
@@ -1403,10 +1479,10 @@
         <v>7</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>7</v>
@@ -1417,13 +1493,16 @@
       <c r="P19" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
+      <c r="Q19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -1456,10 +1535,10 @@
         <v>7</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>7</v>
@@ -1467,19 +1546,22 @@
       <c r="P20" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
+      <c r="Q20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
@@ -1517,13 +1599,16 @@
       <c r="P21" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
+      <c r="Q21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
@@ -1567,67 +1652,69 @@
       <c r="P22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
+      <c r="Q22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
+      <c r="B24" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>7</v>
@@ -1636,25 +1723,25 @@
         <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>7</v>
@@ -1666,18 +1753,21 @@
         <v>7</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
@@ -1707,10 +1797,10 @@
         <v>7</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>7</v>
@@ -1721,13 +1811,16 @@
       <c r="P25" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
+      <c r="Q25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
@@ -1760,10 +1853,10 @@
         <v>7</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>7</v>
@@ -1771,9 +1864,9 @@
       <c r="P26" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="P27" s="2"/>
+      <c r="Q26" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
